--- a/Lab2/2.xlsx
+++ b/Lab2/2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -151,6 +151,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -203,6 +223,9 @@
                 <c:pt idx="6">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -213,30 +236,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>377</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2500</c:v>
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5054-41B5-B1E9-779F38463BBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -246,7 +277,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="198524288"/>
         <c:axId val="198603904"/>
@@ -258,8 +288,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Города</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -292,7 +378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198603904"/>
@@ -348,23 +434,17 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> вычислений</a:t>
+                  <a:t> вычислений,</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y.e.</a:t>
+                </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
@@ -378,9 +458,29 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -407,7 +507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198524288"/>
@@ -448,7 +548,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1020,15 +1120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>56197</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1093,7 +1193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,7 +1228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1337,18 +1437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D11"/>
+  <dimension ref="C4:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1356,60 +1456,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>377</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>2500</v>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>9467</v>
       </c>
     </row>
   </sheetData>
